--- a/biology/Botanique/Chazaliella_coffeosperma/Chazaliella_coffeosperma.xlsx
+++ b/biology/Botanique/Chazaliella_coffeosperma/Chazaliella_coffeosperma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chazaliella coffeosperma (K.Schum.) Verdc. est une espèce de plantes de la famille des Rubiacées et du genre Chazaliella, présente en Afrique tropicale.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbrisseau pouvant atteindre 1,5 m de hauteur[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbrisseau pouvant atteindre 1,5 m de hauteur.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sous le nom de Psychotria coffeosperma, le premier spécimen a été récolté, en fleurs, le 17 mars 1895 par Alois Staudt, dans les sous-bois humides et ombragés, près de Lolodorf, à une altitude d'environ 450-500 m[2].
-La sous-espèce coffeosperma a été récoltée principalement au Cameroun (régions du Centre et du Sud), également au Gabon, notamment sur les monts de Cristal[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous le nom de Psychotria coffeosperma, le premier spécimen a été récolté, en fleurs, le 17 mars 1895 par Alois Staudt, dans les sous-bois humides et ombragés, près de Lolodorf, à une altitude d'environ 450-500 m.
+La sous-espèce coffeosperma a été récoltée principalement au Cameroun (régions du Centre et du Sud), également au Gabon, notamment sur les monts de Cristal.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (12 février 2018)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (12 février 2018) :
 sous-espèce Chazaliella coffeosperma subsp. coffeosperma
 sous-espèce Chazaliella coffeosperma subsp. longipedicellata</t>
         </is>
